--- a/ProyectoMaritima/AppMaritima/static/AppMetricas/images/mensual/2024/4/aciertos_4_2024.xlsx
+++ b/ProyectoMaritima/AppMaritima/static/AppMetricas/images/mensual/2024/4/aciertos_4_2024.xlsx
@@ -476,25 +476,25 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>11.39240506329114</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="C3">
-        <v>27.84810126582278</v>
+        <v>32.05128205128205</v>
       </c>
       <c r="D3">
-        <v>16.45569620253164</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="E3">
-        <v>12.65822784810127</v>
+        <v>6.41025641025641</v>
       </c>
       <c r="G3">
-        <v>44.30379746835443</v>
+        <v>48.71794871794872</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -507,9 +507,6 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
       <c r="G4">
         <v>50</v>
       </c>
@@ -517,18 +514,21 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
       <c r="C5">
-        <v>32.5</v>
+        <v>42.5</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -537,39 +537,42 @@
         <v>2.5</v>
       </c>
       <c r="G5">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>40</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>8.51063829787234</v>
+      </c>
       <c r="C6">
-        <v>25.53191489361702</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="D6">
-        <v>21.27659574468085</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="E6">
         <v>14.8936170212766</v>
       </c>
       <c r="F6">
-        <v>8.51063829787234</v>
+        <v>4.25531914893617</v>
       </c>
       <c r="G6">
-        <v>46.80851063829788</v>
+        <v>40.42553191489362</v>
       </c>
       <c r="H6">
         <v>47</v>
       </c>
       <c r="I6">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -577,22 +580,19 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.898550724637681</v>
+        <v>5.797101449275362</v>
       </c>
       <c r="C7">
-        <v>28.98550724637681</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="D7">
-        <v>26.08695652173913</v>
+        <v>23.18840579710145</v>
       </c>
       <c r="E7">
-        <v>7.246376811594203</v>
-      </c>
-      <c r="F7">
-        <v>1.449275362318841</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="G7">
-        <v>55.07246376811594</v>
+        <v>49.27536231884058</v>
       </c>
       <c r="H7">
         <v>69</v>
@@ -606,16 +606,16 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D8">
-        <v>33.33333333333333</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="E8">
-        <v>26.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>53.33333333333333</v>
+        <v>70</v>
       </c>
       <c r="H8">
         <v>30</v>
